--- a/Polímeros - Pruebas Hipótesis/Propiedades mecanicas Raquis-Vinil AcrilicaVAE.xlsx
+++ b/Polímeros - Pruebas Hipótesis/Propiedades mecanicas Raquis-Vinil AcrilicaVAE.xlsx
@@ -5,21 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\UDC\Polímeros - Pruebas Hipótesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/milton_encarnacion_epn_edu_ec/Documents/Pasantías UDC/UDC/Polímeros - Pruebas Hipótesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF007D2-0ADC-42DE-85CD-06F58D347171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DCF007D2-0ADC-42DE-85CD-06F58D347171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44FEFFB6-0D30-4984-9548-704352CC3F49}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{C3AC2778-E2BE-4CA3-A03B-D203D043F377}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="1" xr2:uid="{C3AC2778-E2BE-4CA3-A03B-D203D043F377}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="7" r:id="rId1"/>
     <sheet name="Compilado" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -187,10 +198,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -510,212 +521,212 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>175</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="1">
         <v>40</v>
       </c>
@@ -736,21 +747,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C353A84-96E2-44AF-B72E-8C0F86333058}">
   <dimension ref="A1:F934"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A917" workbookViewId="0">
+      <selection activeCell="A936" sqref="A936"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -770,7 +781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>75</v>
       </c>
@@ -790,7 +801,7 @@
         <v>0.36169000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>75</v>
       </c>
@@ -810,7 +821,7 @@
         <v>0.42363000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>75</v>
       </c>
@@ -830,7 +841,7 @@
         <v>0.49434</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>75</v>
       </c>
@@ -850,7 +861,7 @@
         <v>0.55835999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>75</v>
       </c>
@@ -870,7 +881,7 @@
         <v>0.42841000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>75</v>
       </c>
@@ -890,7 +901,7 @@
         <v>0.57332000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>75</v>
       </c>
@@ -910,7 +921,7 @@
         <v>0.45557999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>75</v>
       </c>
@@ -930,7 +941,7 @@
         <v>0.38038</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>75</v>
       </c>
@@ -950,7 +961,7 @@
         <v>0.41198000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>75</v>
       </c>
@@ -970,7 +981,7 @@
         <v>0.49062</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>75</v>
       </c>
@@ -990,7 +1001,7 @@
         <v>0.49412</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>75</v>
       </c>
@@ -1010,7 +1021,7 @@
         <v>0.52464</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>75</v>
       </c>
@@ -1030,7 +1041,7 @@
         <v>0.38166</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>75</v>
       </c>
@@ -1050,7 +1061,7 @@
         <v>0.46787000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>75</v>
       </c>
@@ -1070,7 +1081,7 @@
         <v>0.44195000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>75</v>
       </c>
@@ -1090,7 +1101,7 @@
         <v>0.50910999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>75</v>
       </c>
@@ -1110,7 +1121,7 @@
         <v>0.43453000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>75</v>
       </c>
@@ -1130,7 +1141,7 @@
         <v>0.35110999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>75</v>
       </c>
@@ -1150,7 +1161,7 @@
         <v>0.48425000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>75</v>
       </c>
@@ -1170,7 +1181,7 @@
         <v>0.46540999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>75</v>
       </c>
@@ -1190,7 +1201,7 @@
         <v>0.4194</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>75</v>
       </c>
@@ -1210,7 +1221,7 @@
         <v>0.49701000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>75</v>
       </c>
@@ -1230,7 +1241,7 @@
         <v>0.50109999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>75</v>
       </c>
@@ -1250,7 +1261,7 @@
         <v>0.36881999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>75</v>
       </c>
@@ -1270,7 +1281,7 @@
         <v>0.48735000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>75</v>
       </c>
@@ -1290,7 +1301,7 @@
         <v>0.32723999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>75</v>
       </c>
@@ -1310,7 +1321,7 @@
         <v>0.48809999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>75</v>
       </c>
@@ -1330,7 +1341,7 @@
         <v>0.44019999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>75</v>
       </c>
@@ -1350,7 +1361,7 @@
         <v>0.30421999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>75</v>
       </c>
@@ -1370,7 +1381,7 @@
         <v>0.43997999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>75</v>
       </c>
@@ -1390,7 +1401,7 @@
         <v>0.52485000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>75</v>
       </c>
@@ -1410,7 +1421,7 @@
         <v>0.57543999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>75</v>
       </c>
@@ -1430,7 +1441,7 @@
         <v>0.48876999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>75</v>
       </c>
@@ -1450,7 +1461,7 @@
         <v>0.46312999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>75</v>
       </c>
@@ -1470,7 +1481,7 @@
         <v>0.60214000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>75</v>
       </c>
@@ -1490,7 +1501,7 @@
         <v>0.47510000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>75</v>
       </c>
@@ -1510,7 +1521,7 @@
         <v>0.31594</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>75</v>
       </c>
@@ -1530,7 +1541,7 @@
         <v>0.47077000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>75</v>
       </c>
@@ -1550,7 +1561,7 @@
         <v>0.46368999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>75</v>
       </c>
@@ -1570,7 +1581,7 @@
         <v>0.51402999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>75</v>
       </c>
@@ -1590,7 +1601,7 @@
         <v>0.42198999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>75</v>
       </c>
@@ -1610,7 +1621,7 @@
         <v>0.47277000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>75</v>
       </c>
@@ -1630,7 +1641,7 @@
         <v>0.46142</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>75</v>
       </c>
@@ -1650,7 +1661,7 @@
         <v>0.41148000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>75</v>
       </c>
@@ -1670,7 +1681,7 @@
         <v>0.76661000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>75</v>
       </c>
@@ -1690,7 +1701,7 @@
         <v>0.52112000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>75</v>
       </c>
@@ -1710,7 +1721,7 @@
         <v>0.53613</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>75</v>
       </c>
@@ -1730,7 +1741,7 @@
         <v>0.39455000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>75</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>0.36797000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>75</v>
       </c>
@@ -1770,7 +1781,7 @@
         <v>0.46317000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>75</v>
       </c>
@@ -1790,7 +1801,7 @@
         <v>0.45646999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>75</v>
       </c>
@@ -1810,7 +1821,7 @@
         <v>0.51356999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>75</v>
       </c>
@@ -1830,7 +1841,7 @@
         <v>0.63470000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>75</v>
       </c>
@@ -1850,7 +1861,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>75</v>
       </c>
@@ -1870,7 +1881,7 @@
         <v>0.68098000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>75</v>
       </c>
@@ -1890,7 +1901,7 @@
         <v>0.54044999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>75</v>
       </c>
@@ -1910,7 +1921,7 @@
         <v>0.46784999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>75</v>
       </c>
@@ -1930,7 +1941,7 @@
         <v>0.53119000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>75</v>
       </c>
@@ -1950,7 +1961,7 @@
         <v>0.46939999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>75</v>
       </c>
@@ -1970,7 +1981,7 @@
         <v>0.39716000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>75</v>
       </c>
@@ -1990,7 +2001,7 @@
         <v>0.45839000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>75</v>
       </c>
@@ -2010,7 +2021,7 @@
         <v>0.44191000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>75</v>
       </c>
@@ -2030,7 +2041,7 @@
         <v>0.41400999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>75</v>
       </c>
@@ -2050,7 +2061,7 @@
         <v>0.52071000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>75</v>
       </c>
@@ -2070,7 +2081,7 @@
         <v>0.51029999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>75</v>
       </c>
@@ -2090,7 +2101,7 @@
         <v>0.44305</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>75</v>
       </c>
@@ -2110,7 +2121,7 @@
         <v>0.65810000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>75</v>
       </c>
@@ -2130,7 +2141,7 @@
         <v>0.64190999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>75</v>
       </c>
@@ -2150,7 +2161,7 @@
         <v>0.48775000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>75</v>
       </c>
@@ -2170,7 +2181,7 @@
         <v>0.10671</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>75</v>
       </c>
@@ -2190,7 +2201,7 @@
         <v>0.47101999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>75</v>
       </c>
@@ -2210,7 +2221,7 @@
         <v>0.33554</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>75</v>
       </c>
@@ -2230,7 +2241,7 @@
         <v>0.61775999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>75</v>
       </c>
@@ -2250,7 +2261,7 @@
         <v>0.47855999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2270,7 +2281,7 @@
         <v>0.61529</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -2290,7 +2301,7 @@
         <v>0.69910000000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>75</v>
       </c>
@@ -2310,7 +2321,7 @@
         <v>0.55771999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -2330,7 +2341,7 @@
         <v>0.46264</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>75</v>
       </c>
@@ -2350,7 +2361,7 @@
         <v>0.38899</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>75</v>
       </c>
@@ -2370,7 +2381,7 @@
         <v>0.51290000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>75</v>
       </c>
@@ -2390,7 +2401,7 @@
         <v>0.43798999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>75</v>
       </c>
@@ -2410,7 +2421,7 @@
         <v>0.54608000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>75</v>
       </c>
@@ -2430,7 +2441,7 @@
         <v>0.50678999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>75</v>
       </c>
@@ -2450,7 +2461,7 @@
         <v>0.50571999999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>75</v>
       </c>
@@ -2470,7 +2481,7 @@
         <v>0.57291999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>75</v>
       </c>
@@ -2490,7 +2501,7 @@
         <v>0.44511000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>75</v>
       </c>
@@ -2510,7 +2521,7 @@
         <v>0.56706000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>75</v>
       </c>
@@ -2530,7 +2541,7 @@
         <v>0.60604999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>75</v>
       </c>
@@ -2550,7 +2561,7 @@
         <v>0.31612000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>75</v>
       </c>
@@ -2570,7 +2581,7 @@
         <v>0.48057</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>75</v>
       </c>
@@ -2590,7 +2601,7 @@
         <v>0.46494000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>75</v>
       </c>
@@ -2610,7 +2621,7 @@
         <v>5.6180000000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>75</v>
       </c>
@@ -2630,7 +2641,7 @@
         <v>0.28425</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>75</v>
       </c>
@@ -2650,7 +2661,7 @@
         <v>0.51759999999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>75</v>
       </c>
@@ -2670,7 +2681,7 @@
         <v>0.42147000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>75</v>
       </c>
@@ -2690,7 +2701,7 @@
         <v>0.34107999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>75</v>
       </c>
@@ -2710,7 +2721,7 @@
         <v>0.52259</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>75</v>
       </c>
@@ -2730,7 +2741,7 @@
         <v>0.58015000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>75</v>
       </c>
@@ -2750,7 +2761,7 @@
         <v>0.46567999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>75</v>
       </c>
@@ -2770,7 +2781,7 @@
         <v>0.50514999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>75</v>
       </c>
@@ -2790,7 +2801,7 @@
         <v>0.48074</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>75</v>
       </c>
@@ -2810,7 +2821,7 @@
         <v>0.51980999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>75</v>
       </c>
@@ -2830,7 +2841,7 @@
         <v>0.33740999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>75</v>
       </c>
@@ -2850,7 +2861,7 @@
         <v>0.39604</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>75</v>
       </c>
@@ -2870,7 +2881,7 @@
         <v>0.43479000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>75</v>
       </c>
@@ -2890,7 +2901,7 @@
         <v>0.58748</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>75</v>
       </c>
@@ -2910,7 +2921,7 @@
         <v>0.52603</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>75</v>
       </c>
@@ -2930,7 +2941,7 @@
         <v>0.51515999999999995</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>75</v>
       </c>
@@ -2950,7 +2961,7 @@
         <v>0.64104000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>75</v>
       </c>
@@ -2970,7 +2981,7 @@
         <v>0.31522</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>75</v>
       </c>
@@ -2990,7 +3001,7 @@
         <v>0.46678999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>75</v>
       </c>
@@ -3010,7 +3021,7 @@
         <v>0.64546999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>75</v>
       </c>
@@ -3030,7 +3041,7 @@
         <v>0.50683</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>75</v>
       </c>
@@ -3050,7 +3061,7 @@
         <v>0.50085999999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>75</v>
       </c>
@@ -3070,7 +3081,7 @@
         <v>0.51468999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>75</v>
       </c>
@@ -3090,7 +3101,7 @@
         <v>0.45855000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>75</v>
       </c>
@@ -3110,7 +3121,7 @@
         <v>0.42920999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>75</v>
       </c>
@@ -3130,7 +3141,7 @@
         <v>0.40512999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>75</v>
       </c>
@@ -3150,7 +3161,7 @@
         <v>0.46764</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>75</v>
       </c>
@@ -3170,7 +3181,7 @@
         <v>0.44539000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>75</v>
       </c>
@@ -3190,7 +3201,7 @@
         <v>0.72263999999999995</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>75</v>
       </c>
@@ -3210,7 +3221,7 @@
         <v>0.53083999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>75</v>
       </c>
@@ -3230,7 +3241,7 @@
         <v>0.47237000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>75</v>
       </c>
@@ -3250,7 +3261,7 @@
         <v>0.30790000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>75</v>
       </c>
@@ -3270,7 +3281,7 @@
         <v>0.53856999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>75</v>
       </c>
@@ -3290,7 +3301,7 @@
         <v>0.44117000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>75</v>
       </c>
@@ -3310,7 +3321,7 @@
         <v>0.55413000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>75</v>
       </c>
@@ -3330,7 +3341,7 @@
         <v>0.62870999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>75</v>
       </c>
@@ -3350,7 +3361,7 @@
         <v>0.46505000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>75</v>
       </c>
@@ -3370,7 +3381,7 @@
         <v>0.49106</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>75</v>
       </c>
@@ -3390,7 +3401,7 @@
         <v>0.37103000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>75</v>
       </c>
@@ -3410,7 +3421,7 @@
         <v>0.37439</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>75</v>
       </c>
@@ -3430,7 +3441,7 @@
         <v>0.40372999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>75</v>
       </c>
@@ -3450,7 +3461,7 @@
         <v>0.46698000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>75</v>
       </c>
@@ -3470,7 +3481,7 @@
         <v>0.47794999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>75</v>
       </c>
@@ -3490,7 +3501,7 @@
         <v>0.40156999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>75</v>
       </c>
@@ -3510,7 +3521,7 @@
         <v>0.38955000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>75</v>
       </c>
@@ -3530,7 +3541,7 @@
         <v>0.51697000000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>75</v>
       </c>
@@ -3550,7 +3561,7 @@
         <v>0.49224000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>75</v>
       </c>
@@ -3570,7 +3581,7 @@
         <v>0.39323999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>75</v>
       </c>
@@ -3590,7 +3601,7 @@
         <v>0.38168999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>75</v>
       </c>
@@ -3610,7 +3621,7 @@
         <v>5.774E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>75</v>
       </c>
@@ -3630,7 +3641,7 @@
         <v>0.55781999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>75</v>
       </c>
@@ -3650,7 +3661,7 @@
         <v>0.34443000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>75</v>
       </c>
@@ -3670,7 +3681,7 @@
         <v>0.37462000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>75</v>
       </c>
@@ -3690,7 +3701,7 @@
         <v>0.42752000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>75</v>
       </c>
@@ -3710,7 +3721,7 @@
         <v>0.53220000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>75</v>
       </c>
@@ -3730,7 +3741,7 @@
         <v>0.56560999999999995</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>75</v>
       </c>
@@ -3750,7 +3761,7 @@
         <v>0.43275000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>75</v>
       </c>
@@ -3770,7 +3781,7 @@
         <v>0.61089000000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>75</v>
       </c>
@@ -3790,7 +3801,7 @@
         <v>0.61826000000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>75</v>
       </c>
@@ -3810,7 +3821,7 @@
         <v>0.68430000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>75</v>
       </c>
@@ -3830,7 +3841,7 @@
         <v>0.53320000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>75</v>
       </c>
@@ -3850,7 +3861,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>75</v>
       </c>
@@ -3870,7 +3881,7 @@
         <v>0.53712000000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>75</v>
       </c>
@@ -3890,7 +3901,7 @@
         <v>0.48596</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>75</v>
       </c>
@@ -3910,7 +3921,7 @@
         <v>0.4355</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>75</v>
       </c>
@@ -3930,7 +3941,7 @@
         <v>0.36205999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>75</v>
       </c>
@@ -3950,7 +3961,7 @@
         <v>0.57894000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>75</v>
       </c>
@@ -3970,7 +3981,7 @@
         <v>0.42019000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>75</v>
       </c>
@@ -3990,7 +4001,7 @@
         <v>0.44262000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>75</v>
       </c>
@@ -4010,7 +4021,7 @@
         <v>0.37145</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>100</v>
       </c>
@@ -4030,7 +4041,7 @@
         <v>0.30530000000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>100</v>
       </c>
@@ -4050,7 +4061,7 @@
         <v>0.39150000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>100</v>
       </c>
@@ -4070,7 +4081,7 @@
         <v>0.46799000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>100</v>
       </c>
@@ -4090,7 +4101,7 @@
         <v>0.43537999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>100</v>
       </c>
@@ -4110,7 +4121,7 @@
         <v>0.42459999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>100</v>
       </c>
@@ -4130,7 +4141,7 @@
         <v>0.44191000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>100</v>
       </c>
@@ -4150,7 +4161,7 @@
         <v>0.49180000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>100</v>
       </c>
@@ -4170,7 +4181,7 @@
         <v>0.53544999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>100</v>
       </c>
@@ -4190,7 +4201,7 @@
         <v>0.49717</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>100</v>
       </c>
@@ -4210,7 +4221,7 @@
         <v>0.46808</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>100</v>
       </c>
@@ -4230,7 +4241,7 @@
         <v>0.28027000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>100</v>
       </c>
@@ -4250,7 +4261,7 @@
         <v>0.45712000000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>100</v>
       </c>
@@ -4270,7 +4281,7 @@
         <v>0.40103</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>100</v>
       </c>
@@ -4290,7 +4301,7 @@
         <v>0.55337999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>100</v>
       </c>
@@ -4310,7 +4321,7 @@
         <v>0.31452000000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>100</v>
       </c>
@@ -4330,7 +4341,7 @@
         <v>0.41659000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>100</v>
       </c>
@@ -4350,7 +4361,7 @@
         <v>0.3649</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>100</v>
       </c>
@@ -4370,7 +4381,7 @@
         <v>0.38897999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>100</v>
       </c>
@@ -4390,7 +4401,7 @@
         <v>0.39906000000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>100</v>
       </c>
@@ -4410,7 +4421,7 @@
         <v>0.59955999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>100</v>
       </c>
@@ -4430,7 +4441,7 @@
         <v>0.46793000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>100</v>
       </c>
@@ -4450,7 +4461,7 @@
         <v>0.57598000000000005</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>100</v>
       </c>
@@ -4470,7 +4481,7 @@
         <v>0.51597000000000004</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>100</v>
       </c>
@@ -4490,7 +4501,7 @@
         <v>0.62439999999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>100</v>
       </c>
@@ -4510,7 +4521,7 @@
         <v>0.37624000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>100</v>
       </c>
@@ -4530,7 +4541,7 @@
         <v>0.32546999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>100</v>
       </c>
@@ -4550,7 +4561,7 @@
         <v>0.38630999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>100</v>
       </c>
@@ -4570,7 +4581,7 @@
         <v>0.49620999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>100</v>
       </c>
@@ -4590,7 +4601,7 @@
         <v>0.42353000000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>100</v>
       </c>
@@ -4610,7 +4621,7 @@
         <v>0.44242999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>100</v>
       </c>
@@ -4630,7 +4641,7 @@
         <v>0.44162000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>100</v>
       </c>
@@ -4650,7 +4661,7 @@
         <v>0.32146000000000002</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>100</v>
       </c>
@@ -4670,7 +4681,7 @@
         <v>0.43025999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>100</v>
       </c>
@@ -4690,7 +4701,7 @@
         <v>0.32806000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>100</v>
       </c>
@@ -4710,7 +4721,7 @@
         <v>0.32539000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>100</v>
       </c>
@@ -4730,7 +4741,7 @@
         <v>0.45729999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>100</v>
       </c>
@@ -4750,7 +4761,7 @@
         <v>0.4556</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>100</v>
       </c>
@@ -4770,7 +4781,7 @@
         <v>0.47604999999999997</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>100</v>
       </c>
@@ -4790,7 +4801,7 @@
         <v>0.51419999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>100</v>
       </c>
@@ -4810,7 +4821,7 @@
         <v>0.29021999999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>100</v>
       </c>
@@ -4830,7 +4841,7 @@
         <v>0.47020000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>100</v>
       </c>
@@ -4850,7 +4861,7 @@
         <v>0.28269</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>100</v>
       </c>
@@ -4870,7 +4881,7 @@
         <v>0.35464000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>100</v>
       </c>
@@ -4890,7 +4901,7 @@
         <v>0.29783999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>100</v>
       </c>
@@ -4910,7 +4921,7 @@
         <v>0.44736999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>100</v>
       </c>
@@ -4930,7 +4941,7 @@
         <v>0.45008999999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>100</v>
       </c>
@@ -4950,7 +4961,7 @@
         <v>0.36728</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>100</v>
       </c>
@@ -4970,7 +4981,7 @@
         <v>0.50966</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>100</v>
       </c>
@@ -4990,7 +5001,7 @@
         <v>0.31930999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>100</v>
       </c>
@@ -5010,7 +5021,7 @@
         <v>0.35116000000000003</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>100</v>
       </c>
@@ -5030,7 +5041,7 @@
         <v>0.36793999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>100</v>
       </c>
@@ -5050,7 +5061,7 @@
         <v>0.35315000000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>100</v>
       </c>
@@ -5070,7 +5081,7 @@
         <v>0.41849999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>100</v>
       </c>
@@ -5090,7 +5101,7 @@
         <v>0.39804</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>100</v>
       </c>
@@ -5110,7 +5121,7 @@
         <v>0.40279999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>100</v>
       </c>
@@ -5130,7 +5141,7 @@
         <v>0.41976999999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>100</v>
       </c>
@@ -5150,7 +5161,7 @@
         <v>0.51678999999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>100</v>
       </c>
@@ -5170,7 +5181,7 @@
         <v>0.30395</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>100</v>
       </c>
@@ -5190,7 +5201,7 @@
         <v>0.45702999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>100</v>
       </c>
@@ -5210,7 +5221,7 @@
         <v>0.61192000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>100</v>
       </c>
@@ -5230,7 +5241,7 @@
         <v>0.30909999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>100</v>
       </c>
@@ -5250,7 +5261,7 @@
         <v>0.52281999999999995</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>100</v>
       </c>
@@ -5270,7 +5281,7 @@
         <v>0.30735000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>100</v>
       </c>
@@ -5290,7 +5301,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>100</v>
       </c>
@@ -5310,7 +5321,7 @@
         <v>0.48948999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>100</v>
       </c>
@@ -5330,7 +5341,7 @@
         <v>0.55049999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>100</v>
       </c>
@@ -5350,7 +5361,7 @@
         <v>0.60972000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>100</v>
       </c>
@@ -5370,7 +5381,7 @@
         <v>0.42076999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>100</v>
       </c>
@@ -5390,7 +5401,7 @@
         <v>0.37990000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>100</v>
       </c>
@@ -5410,7 +5421,7 @@
         <v>0.50787000000000004</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>100</v>
       </c>
@@ -5430,7 +5441,7 @@
         <v>0.59155000000000002</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>100</v>
       </c>
@@ -5450,7 +5461,7 @@
         <v>0.57296000000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>100</v>
       </c>
@@ -5470,7 +5481,7 @@
         <v>0.58065999999999995</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>100</v>
       </c>
@@ -5490,7 +5501,7 @@
         <v>0.48171000000000003</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>100</v>
       </c>
@@ -5510,7 +5521,7 @@
         <v>0.49524000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>100</v>
       </c>
@@ -5530,7 +5541,7 @@
         <v>0.5605</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>100</v>
       </c>
@@ -5550,7 +5561,7 @@
         <v>0.58606000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>100</v>
       </c>
@@ -5570,7 +5581,7 @@
         <v>0.53808999999999996</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>100</v>
       </c>
@@ -5590,7 +5601,7 @@
         <v>0.45367000000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>100</v>
       </c>
@@ -5610,7 +5621,7 @@
         <v>0.44225999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>100</v>
       </c>
@@ -5630,7 +5641,7 @@
         <v>0.45445000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>100</v>
       </c>
@@ -5650,7 +5661,7 @@
         <v>0.41050999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>100</v>
       </c>
@@ -5670,7 +5681,7 @@
         <v>0.40527000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>100</v>
       </c>
@@ -5690,7 +5701,7 @@
         <v>0.37042999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>100</v>
       </c>
@@ -5710,7 +5721,7 @@
         <v>0.49525000000000002</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>100</v>
       </c>
@@ -5730,7 +5741,7 @@
         <v>0.41532000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>100</v>
       </c>
@@ -5750,7 +5761,7 @@
         <v>0.40716999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>100</v>
       </c>
@@ -5770,7 +5781,7 @@
         <v>0.49269000000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>100</v>
       </c>
@@ -5790,7 +5801,7 @@
         <v>0.35602</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>100</v>
       </c>
@@ -5810,7 +5821,7 @@
         <v>0.42484</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>100</v>
       </c>
@@ -5830,7 +5841,7 @@
         <v>0.34881000000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>100</v>
       </c>
@@ -5850,7 +5861,7 @@
         <v>0.46553</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>100</v>
       </c>
@@ -5870,7 +5881,7 @@
         <v>0.45099</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>100</v>
       </c>
@@ -5890,7 +5901,7 @@
         <v>0.50026999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>100</v>
       </c>
@@ -5910,7 +5921,7 @@
         <v>0.30842000000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>100</v>
       </c>
@@ -5930,7 +5941,7 @@
         <v>0.41382999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>100</v>
       </c>
@@ -5950,7 +5961,7 @@
         <v>0.50085000000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>100</v>
       </c>
@@ -5970,7 +5981,7 @@
         <v>0.46081</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>100</v>
       </c>
@@ -5990,7 +6001,7 @@
         <v>0.39361000000000002</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>100</v>
       </c>
@@ -6010,7 +6021,7 @@
         <v>0.34964000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>100</v>
       </c>
@@ -6030,7 +6041,7 @@
         <v>0.35059000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>100</v>
       </c>
@@ -6050,7 +6061,7 @@
         <v>0.31308999999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>100</v>
       </c>
@@ -6070,7 +6081,7 @@
         <v>0.47470000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>100</v>
       </c>
@@ -6090,7 +6101,7 @@
         <v>0.58472999999999997</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>100</v>
       </c>
@@ -6110,7 +6121,7 @@
         <v>0.34642000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>100</v>
       </c>
@@ -6130,7 +6141,7 @@
         <v>0.36947000000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>100</v>
       </c>
@@ -6150,7 +6161,7 @@
         <v>0.58370999999999995</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>100</v>
       </c>
@@ -6170,7 +6181,7 @@
         <v>0.39845000000000003</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>100</v>
       </c>
@@ -6190,7 +6201,7 @@
         <v>0.24903</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>100</v>
       </c>
@@ -6210,7 +6221,7 @@
         <v>0.40023999999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>100</v>
       </c>
@@ -6230,7 +6241,7 @@
         <v>0.38641999999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>100</v>
       </c>
@@ -6250,7 +6261,7 @@
         <v>0.53083000000000002</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>100</v>
       </c>
@@ -6270,7 +6281,7 @@
         <v>0.50575000000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>100</v>
       </c>
@@ -6290,7 +6301,7 @@
         <v>0.45371</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>100</v>
       </c>
@@ -6310,7 +6321,7 @@
         <v>0.44557000000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>100</v>
       </c>
@@ -6330,7 +6341,7 @@
         <v>0.53949000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>100</v>
       </c>
@@ -6350,7 +6361,7 @@
         <v>0.36487999999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>100</v>
       </c>
@@ -6370,7 +6381,7 @@
         <v>0.51168999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>100</v>
       </c>
@@ -6390,7 +6401,7 @@
         <v>0.54386999999999996</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>100</v>
       </c>
@@ -6410,7 +6421,7 @@
         <v>0.38186999999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>100</v>
       </c>
@@ -6430,7 +6441,7 @@
         <v>0.47248000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>100</v>
       </c>
@@ -6450,7 +6461,7 @@
         <v>0.32321</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>100</v>
       </c>
@@ -6470,7 +6481,7 @@
         <v>0.33629999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>100</v>
       </c>
@@ -6490,7 +6501,7 @@
         <v>0.40894000000000003</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>100</v>
       </c>
@@ -6510,7 +6521,7 @@
         <v>0.4335</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>100</v>
       </c>
@@ -6530,7 +6541,7 @@
         <v>0.47867999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>100</v>
       </c>
@@ -6550,7 +6561,7 @@
         <v>0.36889</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>100</v>
       </c>
@@ -6570,7 +6581,7 @@
         <v>0.66986000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>100</v>
       </c>
@@ -6590,7 +6601,7 @@
         <v>0.49618000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>100</v>
       </c>
@@ -6610,7 +6621,7 @@
         <v>0.55559999999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>100</v>
       </c>
@@ -6630,7 +6641,7 @@
         <v>0.28958</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>100</v>
       </c>
@@ -6650,7 +6661,7 @@
         <v>0.45249</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>100</v>
       </c>
@@ -6670,7 +6681,7 @@
         <v>0.39650999999999997</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>100</v>
       </c>
@@ -6690,7 +6701,7 @@
         <v>0.47350999999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>100</v>
       </c>
@@ -6710,7 +6721,7 @@
         <v>0.42094999999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>100</v>
       </c>
@@ -6730,7 +6741,7 @@
         <v>0.46032000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>100</v>
       </c>
@@ -6750,7 +6761,7 @@
         <v>0.52714000000000005</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>100</v>
       </c>
@@ -6770,7 +6781,7 @@
         <v>0.38374999999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>100</v>
       </c>
@@ -6790,7 +6801,7 @@
         <v>0.39795999999999998</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>100</v>
       </c>
@@ -6810,7 +6821,7 @@
         <v>0.41863</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>100</v>
       </c>
@@ -6830,7 +6841,7 @@
         <v>0.51710999999999996</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>100</v>
       </c>
@@ -6850,7 +6861,7 @@
         <v>0.42429</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>100</v>
       </c>
@@ -6870,7 +6881,7 @@
         <v>0.39076</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>100</v>
       </c>
@@ -6890,7 +6901,7 @@
         <v>0.50322</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>100</v>
       </c>
@@ -6910,7 +6921,7 @@
         <v>0.42451</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>100</v>
       </c>
@@ -6930,7 +6941,7 @@
         <v>0.42176000000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>100</v>
       </c>
@@ -6950,7 +6961,7 @@
         <v>0.36434</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>100</v>
       </c>
@@ -6970,7 +6981,7 @@
         <v>0.44446999999999998</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>100</v>
       </c>
@@ -6990,7 +7001,7 @@
         <v>0.44564999999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>100</v>
       </c>
@@ -7010,7 +7021,7 @@
         <v>0.32584000000000002</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>100</v>
       </c>
@@ -7030,7 +7041,7 @@
         <v>0.27337</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>100</v>
       </c>
@@ -7050,7 +7061,7 @@
         <v>0.34358</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>100</v>
       </c>
@@ -7070,7 +7081,7 @@
         <v>3.3160000000000002E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>100</v>
       </c>
@@ -7090,7 +7101,7 @@
         <v>0.53512000000000004</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>100</v>
       </c>
@@ -7110,7 +7121,7 @@
         <v>0.52009000000000005</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>100</v>
       </c>
@@ -7130,7 +7141,7 @@
         <v>0.52681</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>100</v>
       </c>
@@ -7150,7 +7161,7 @@
         <v>0.40085999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>100</v>
       </c>
@@ -7170,7 +7181,7 @@
         <v>0.45839000000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>100</v>
       </c>
@@ -7190,7 +7201,7 @@
         <v>0.36266999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>100</v>
       </c>
@@ -7210,7 +7221,7 @@
         <v>0.53042</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>100</v>
       </c>
@@ -7230,7 +7241,7 @@
         <v>0.47175</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>100</v>
       </c>
@@ -7250,7 +7261,7 @@
         <v>0.3599</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>100</v>
       </c>
@@ -7270,7 +7281,7 @@
         <v>0.36363000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>100</v>
       </c>
@@ -7290,7 +7301,7 @@
         <v>0.36088999999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>100</v>
       </c>
@@ -7310,7 +7321,7 @@
         <v>0.49941000000000002</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>100</v>
       </c>
@@ -7330,7 +7341,7 @@
         <v>0.49009999999999998</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>100</v>
       </c>
@@ -7350,7 +7361,7 @@
         <v>0.44590000000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>100</v>
       </c>
@@ -7370,7 +7381,7 @@
         <v>0.39041999999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>100</v>
       </c>
@@ -7390,7 +7401,7 @@
         <v>0.39090000000000003</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>100</v>
       </c>
@@ -7410,7 +7421,7 @@
         <v>0.43025999999999998</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>100</v>
       </c>
@@ -7430,7 +7441,7 @@
         <v>0.41607</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>100</v>
       </c>
@@ -7450,7 +7461,7 @@
         <v>0.41376000000000002</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>100</v>
       </c>
@@ -7470,7 +7481,7 @@
         <v>0.36896000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>100</v>
       </c>
@@ -7490,7 +7501,7 @@
         <v>0.56545000000000001</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>100</v>
       </c>
@@ -7510,7 +7521,7 @@
         <v>0.33093</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>100</v>
       </c>
@@ -7530,7 +7541,7 @@
         <v>0.43741000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>125</v>
       </c>
@@ -7550,7 +7561,7 @@
         <v>0.44270999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>125</v>
       </c>
@@ -7570,7 +7581,7 @@
         <v>0.44179000000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>125</v>
       </c>
@@ -7590,7 +7601,7 @@
         <v>0.37794</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>125</v>
       </c>
@@ -7610,7 +7621,7 @@
         <v>0.45050000000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>125</v>
       </c>
@@ -7630,7 +7641,7 @@
         <v>0.46504000000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>125</v>
       </c>
@@ -7650,7 +7661,7 @@
         <v>0.29268</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>125</v>
       </c>
@@ -7670,7 +7681,7 @@
         <v>0.35272999999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>125</v>
       </c>
@@ -7690,7 +7701,7 @@
         <v>0.29364000000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>125</v>
       </c>
@@ -7710,7 +7721,7 @@
         <v>0.49797999999999998</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>125</v>
       </c>
@@ -7730,7 +7741,7 @@
         <v>0.20802999999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>125</v>
       </c>
@@ -7750,7 +7761,7 @@
         <v>0.34501999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>125</v>
       </c>
@@ -7770,7 +7781,7 @@
         <v>0.45645000000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>125</v>
       </c>
@@ -7790,7 +7801,7 @@
         <v>0.39410000000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>125</v>
       </c>
@@ -7810,7 +7821,7 @@
         <v>0.36801</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>125</v>
       </c>
@@ -7830,7 +7841,7 @@
         <v>0.40049000000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>125</v>
       </c>
@@ -7850,7 +7861,7 @@
         <v>0.41593000000000002</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>125</v>
       </c>
@@ -7870,7 +7881,7 @@
         <v>0.43403000000000003</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>125</v>
       </c>
@@ -7890,7 +7901,7 @@
         <v>0.33839999999999998</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>125</v>
       </c>
@@ -7910,7 +7921,7 @@
         <v>0.48419000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>125</v>
       </c>
@@ -7930,7 +7941,7 @@
         <v>0.16209999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>125</v>
       </c>
@@ -7950,7 +7961,7 @@
         <v>0.35047</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>125</v>
       </c>
@@ -7970,7 +7981,7 @@
         <v>0.34506999999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>125</v>
       </c>
@@ -7990,7 +8001,7 @@
         <v>0.24174000000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>125</v>
       </c>
@@ -8010,7 +8021,7 @@
         <v>0.35770999999999997</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>125</v>
       </c>
@@ -8030,7 +8041,7 @@
         <v>0.29665999999999998</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>125</v>
       </c>
@@ -8050,7 +8061,7 @@
         <v>0.38589000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>125</v>
       </c>
@@ -8070,7 +8081,7 @@
         <v>0.15712999999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>125</v>
       </c>
@@ -8090,7 +8101,7 @@
         <v>0.36854999999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>125</v>
       </c>
@@ -8110,7 +8121,7 @@
         <v>0.45629999999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>125</v>
       </c>
@@ -8130,7 +8141,7 @@
         <v>0.34062999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>125</v>
       </c>
@@ -8150,7 +8161,7 @@
         <v>0.40988000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>125</v>
       </c>
@@ -8170,7 +8181,7 @@
         <v>0.34855999999999998</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>125</v>
       </c>
@@ -8190,7 +8201,7 @@
         <v>0.34838999999999998</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>125</v>
       </c>
@@ -8210,7 +8221,7 @@
         <v>0.42192000000000002</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>125</v>
       </c>
@@ -8230,7 +8241,7 @@
         <v>6.1469999999999997E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>125</v>
       </c>
@@ -8250,7 +8261,7 @@
         <v>0.44208999999999998</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>125</v>
       </c>
@@ -8270,7 +8281,7 @@
         <v>0.30674000000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>125</v>
       </c>
@@ -8290,7 +8301,7 @@
         <v>0.55701999999999996</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>125</v>
       </c>
@@ -8310,7 +8321,7 @@
         <v>0.30565999999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>125</v>
       </c>
@@ -8330,7 +8341,7 @@
         <v>0.37907000000000002</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>125</v>
       </c>
@@ -8350,7 +8361,7 @@
         <v>0.33984999999999999</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>125</v>
       </c>
@@ -8370,7 +8381,7 @@
         <v>0.40331</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>125</v>
       </c>
@@ -8390,7 +8401,7 @@
         <v>0.38777</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>125</v>
       </c>
@@ -8410,7 +8421,7 @@
         <v>0.44417000000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>125</v>
       </c>
@@ -8430,7 +8441,7 @@
         <v>0.47049000000000002</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>125</v>
       </c>
@@ -8450,7 +8461,7 @@
         <v>0.38401999999999997</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>125</v>
       </c>
@@ -8470,7 +8481,7 @@
         <v>0.32580999999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>125</v>
       </c>
@@ -8490,7 +8501,7 @@
         <v>0.42310999999999999</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>125</v>
       </c>
@@ -8510,7 +8521,7 @@
         <v>0.25592999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>125</v>
       </c>
@@ -8530,7 +8541,7 @@
         <v>0.35947000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>125</v>
       </c>
@@ -8550,7 +8561,7 @@
         <v>0.42927999999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>125</v>
       </c>
@@ -8570,7 +8581,7 @@
         <v>0.29823</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>125</v>
       </c>
@@ -8590,7 +8601,7 @@
         <v>0.45104</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>125</v>
       </c>
@@ -8610,7 +8621,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>125</v>
       </c>
@@ -8630,7 +8641,7 @@
         <v>0.52627000000000002</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>125</v>
       </c>
@@ -8650,7 +8661,7 @@
         <v>0.36465999999999998</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>125</v>
       </c>
@@ -8670,7 +8681,7 @@
         <v>0.29432999999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>125</v>
       </c>
@@ -8690,7 +8701,7 @@
         <v>0.46582000000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>125</v>
       </c>
@@ -8710,7 +8721,7 @@
         <v>0.50988</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>125</v>
       </c>
@@ -8730,7 +8741,7 @@
         <v>0.46061000000000002</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>125</v>
       </c>
@@ -8750,7 +8761,7 @@
         <v>0.39276</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>125</v>
       </c>
@@ -8770,7 +8781,7 @@
         <v>0.46562999999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>125</v>
       </c>
@@ -8790,7 +8801,7 @@
         <v>0.32364999999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>125</v>
       </c>
@@ -8810,7 +8821,7 @@
         <v>0.22170000000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>125</v>
       </c>
@@ -8830,7 +8841,7 @@
         <v>0.47167999999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>125</v>
       </c>
@@ -8850,7 +8861,7 @@
         <v>0.33368999999999999</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>125</v>
       </c>
@@ -8870,7 +8881,7 @@
         <v>0.49097000000000002</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>125</v>
       </c>
@@ -8890,7 +8901,7 @@
         <v>0.30251</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>125</v>
       </c>
@@ -8910,7 +8921,7 @@
         <v>0.28664000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>125</v>
       </c>
@@ -8930,7 +8941,7 @@
         <v>0.32530999999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>125</v>
       </c>
@@ -8950,7 +8961,7 @@
         <v>0.33405000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>125</v>
       </c>
@@ -8970,7 +8981,7 @@
         <v>0.41670000000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>125</v>
       </c>
@@ -8990,7 +9001,7 @@
         <v>0.32030999999999998</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>125</v>
       </c>
@@ -9010,7 +9021,7 @@
         <v>0.42204999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>125</v>
       </c>
@@ -9030,7 +9041,7 @@
         <v>0.45206000000000002</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>125</v>
       </c>
@@ -9050,7 +9061,7 @@
         <v>0.44999</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>125</v>
       </c>
@@ -9070,7 +9081,7 @@
         <v>0.49035000000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>125</v>
       </c>
@@ -9090,7 +9101,7 @@
         <v>0.44190000000000002</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>125</v>
       </c>
@@ -9110,7 +9121,7 @@
         <v>0.38489000000000001</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>125</v>
       </c>
@@ -9130,7 +9141,7 @@
         <v>0.33910000000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>125</v>
       </c>
@@ -9150,7 +9161,7 @@
         <v>0.43251000000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>125</v>
       </c>
@@ -9170,7 +9181,7 @@
         <v>0.49282999999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>125</v>
       </c>
@@ -9190,7 +9201,7 @@
         <v>0.49147999999999997</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>125</v>
       </c>
@@ -9210,7 +9221,7 @@
         <v>0.34967999999999999</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>125</v>
       </c>
@@ -9230,7 +9241,7 @@
         <v>0.44297999999999998</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>125</v>
       </c>
@@ -9250,7 +9261,7 @@
         <v>0.36942000000000003</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>125</v>
       </c>
@@ -9270,7 +9281,7 @@
         <v>0.21642</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>125</v>
       </c>
@@ -9290,7 +9301,7 @@
         <v>0.51809000000000005</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>125</v>
       </c>
@@ -9310,7 +9321,7 @@
         <v>0.48776999999999998</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>125</v>
       </c>
@@ -9330,7 +9341,7 @@
         <v>0.33084000000000002</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>125</v>
       </c>
@@ -9350,7 +9361,7 @@
         <v>0.49752999999999997</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>125</v>
       </c>
@@ -9370,7 +9381,7 @@
         <v>0.56896000000000002</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>125</v>
       </c>
@@ -9390,7 +9401,7 @@
         <v>0.43631999999999999</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>125</v>
       </c>
@@ -9410,7 +9421,7 @@
         <v>0.39660000000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>125</v>
       </c>
@@ -9430,7 +9441,7 @@
         <v>0.42076000000000002</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>125</v>
       </c>
@@ -9450,7 +9461,7 @@
         <v>0.45778999999999997</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>125</v>
       </c>
@@ -9470,7 +9481,7 @@
         <v>0.50577000000000005</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>125</v>
       </c>
@@ -9490,7 +9501,7 @@
         <v>0.33105000000000001</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>125</v>
       </c>
@@ -9510,7 +9521,7 @@
         <v>0.29214000000000001</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>125</v>
       </c>
@@ -9530,7 +9541,7 @@
         <v>0.51236999999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>125</v>
       </c>
@@ -9550,7 +9561,7 @@
         <v>0.54625999999999997</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>125</v>
       </c>
@@ -9570,7 +9581,7 @@
         <v>0.27406000000000003</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>125</v>
       </c>
@@ -9590,7 +9601,7 @@
         <v>0.39581</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>125</v>
       </c>
@@ -9610,7 +9621,7 @@
         <v>0.38928000000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>125</v>
       </c>
@@ -9630,7 +9641,7 @@
         <v>0.41144999999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>125</v>
       </c>
@@ -9650,7 +9661,7 @@
         <v>0.35527999999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>125</v>
       </c>
@@ -9670,7 +9681,7 @@
         <v>0.47820000000000001</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>125</v>
       </c>
@@ -9690,7 +9701,7 @@
         <v>0.44028</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>125</v>
       </c>
@@ -9710,7 +9721,7 @@
         <v>0.36513000000000001</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>125</v>
       </c>
@@ -9730,7 +9741,7 @@
         <v>0.43540000000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>125</v>
       </c>
@@ -9750,7 +9761,7 @@
         <v>0.52056000000000002</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>125</v>
       </c>
@@ -9770,7 +9781,7 @@
         <v>0.57450000000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>125</v>
       </c>
@@ -9790,7 +9801,7 @@
         <v>0.41636000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>125</v>
       </c>
@@ -9810,7 +9821,7 @@
         <v>0.52649999999999997</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>125</v>
       </c>
@@ -9830,7 +9841,7 @@
         <v>0.49292999999999998</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>125</v>
       </c>
@@ -9850,7 +9861,7 @@
         <v>0.33401999999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>125</v>
       </c>
@@ -9870,7 +9881,7 @@
         <v>0.49507000000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>125</v>
       </c>
@@ -9890,7 +9901,7 @@
         <v>0.42050999999999999</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>125</v>
       </c>
@@ -9910,7 +9921,7 @@
         <v>0.28649999999999998</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>125</v>
       </c>
@@ -9930,7 +9941,7 @@
         <v>0.37569000000000002</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>125</v>
       </c>
@@ -9950,7 +9961,7 @@
         <v>0.57808000000000004</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>125</v>
       </c>
@@ -9970,7 +9981,7 @@
         <v>0.62575999999999998</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>125</v>
       </c>
@@ -9990,7 +10001,7 @@
         <v>0.38685999999999998</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>125</v>
       </c>
@@ -10010,7 +10021,7 @@
         <v>0.47777999999999998</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>125</v>
       </c>
@@ -10030,7 +10041,7 @@
         <v>0.46633999999999998</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>125</v>
       </c>
@@ -10050,7 +10061,7 @@
         <v>0.63949999999999996</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>125</v>
       </c>
@@ -10070,7 +10081,7 @@
         <v>0.49481999999999998</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>125</v>
       </c>
@@ -10090,7 +10101,7 @@
         <v>0.38993</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>125</v>
       </c>
@@ -10110,7 +10121,7 @@
         <v>0.34877000000000002</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>125</v>
       </c>
@@ -10130,7 +10141,7 @@
         <v>0.44557999999999998</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>125</v>
       </c>
@@ -10150,7 +10161,7 @@
         <v>0.40143000000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>125</v>
       </c>
@@ -10170,7 +10181,7 @@
         <v>0.40919</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>125</v>
       </c>
@@ -10190,7 +10201,7 @@
         <v>0.47796</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>125</v>
       </c>
@@ -10210,7 +10221,7 @@
         <v>0.39805000000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>125</v>
       </c>
@@ -10230,7 +10241,7 @@
         <v>0.54090000000000005</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>125</v>
       </c>
@@ -10250,7 +10261,7 @@
         <v>0.58536999999999995</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>125</v>
       </c>
@@ -10270,7 +10281,7 @@
         <v>0.31978000000000001</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>125</v>
       </c>
@@ -10290,7 +10301,7 @@
         <v>0.35143999999999997</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>125</v>
       </c>
@@ -10310,7 +10321,7 @@
         <v>0.52508999999999995</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>125</v>
       </c>
@@ -10330,7 +10341,7 @@
         <v>0.46166000000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>125</v>
       </c>
@@ -10350,7 +10361,7 @@
         <v>0.42423</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>125</v>
       </c>
@@ -10370,7 +10381,7 @@
         <v>0.39657999999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>125</v>
       </c>
@@ -10390,7 +10401,7 @@
         <v>0.32744000000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>125</v>
       </c>
@@ -10410,7 +10421,7 @@
         <v>0.34698000000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>125</v>
       </c>
@@ -10430,7 +10441,7 @@
         <v>0.42031000000000002</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>125</v>
       </c>
@@ -10450,7 +10461,7 @@
         <v>0.28372999999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>125</v>
       </c>
@@ -10470,7 +10481,7 @@
         <v>0.25996000000000002</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>125</v>
       </c>
@@ -10490,7 +10501,7 @@
         <v>0.25528000000000001</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>125</v>
       </c>
@@ -10510,7 +10521,7 @@
         <v>0.28602</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>125</v>
       </c>
@@ -10530,7 +10541,7 @@
         <v>0.28015000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>125</v>
       </c>
@@ -10550,7 +10561,7 @@
         <v>0.37857000000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>125</v>
       </c>
@@ -10570,7 +10581,7 @@
         <v>0.20286000000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>125</v>
       </c>
@@ -10590,7 +10601,7 @@
         <v>0.28888999999999998</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>125</v>
       </c>
@@ -10610,7 +10621,7 @@
         <v>0.31680999999999998</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>125</v>
       </c>
@@ -10630,7 +10641,7 @@
         <v>0.34188000000000002</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>125</v>
       </c>
@@ -10650,7 +10661,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>125</v>
       </c>
@@ -10670,7 +10681,7 @@
         <v>0.37241999999999997</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>125</v>
       </c>
@@ -10690,7 +10701,7 @@
         <v>0.40264</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>125</v>
       </c>
@@ -10710,7 +10721,7 @@
         <v>0.27471000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>125</v>
       </c>
@@ -10730,7 +10741,7 @@
         <v>0.41205000000000003</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>125</v>
       </c>
@@ -10750,7 +10761,7 @@
         <v>0.31118000000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>125</v>
       </c>
@@ -10770,7 +10781,7 @@
         <v>0.49784</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>125</v>
       </c>
@@ -10790,7 +10801,7 @@
         <v>0.24944</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>125</v>
       </c>
@@ -10810,7 +10821,7 @@
         <v>0.28087000000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>125</v>
       </c>
@@ -10830,7 +10841,7 @@
         <v>0.34390999999999999</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>125</v>
       </c>
@@ -10850,7 +10861,7 @@
         <v>0.35876000000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>125</v>
       </c>
@@ -10870,7 +10881,7 @@
         <v>0.38203999999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>125</v>
       </c>
@@ -10890,7 +10901,7 @@
         <v>0.32841999999999999</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>125</v>
       </c>
@@ -10910,7 +10921,7 @@
         <v>0.47504999999999997</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>125</v>
       </c>
@@ -10930,7 +10941,7 @@
         <v>0.36475999999999997</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>125</v>
       </c>
@@ -10950,7 +10961,7 @@
         <v>0.55586999999999998</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>125</v>
       </c>
@@ -10970,7 +10981,7 @@
         <v>0.39035999999999998</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>125</v>
       </c>
@@ -10990,7 +11001,7 @@
         <v>0.48855999999999999</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>125</v>
       </c>
@@ -11010,7 +11021,7 @@
         <v>0.39189000000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>125</v>
       </c>
@@ -11030,7 +11041,7 @@
         <v>0.35065000000000002</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>125</v>
       </c>
@@ -11050,7 +11061,7 @@
         <v>0.26816000000000001</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>125</v>
       </c>
@@ -11070,7 +11081,7 @@
         <v>0.48837000000000003</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>125</v>
       </c>
@@ -11090,7 +11101,7 @@
         <v>0.49736000000000002</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>125</v>
       </c>
@@ -11110,7 +11121,7 @@
         <v>0.41399000000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>125</v>
       </c>
@@ -11130,7 +11141,7 @@
         <v>0.45096999999999998</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>125</v>
       </c>
@@ -11150,7 +11161,7 @@
         <v>0.50034999999999996</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>125</v>
       </c>
@@ -11170,7 +11181,7 @@
         <v>0.35659999999999997</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>125</v>
       </c>
@@ -11190,7 +11201,7 @@
         <v>0.46838000000000002</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>125</v>
       </c>
@@ -11210,7 +11221,7 @@
         <v>0.38386999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>125</v>
       </c>
@@ -11230,7 +11241,7 @@
         <v>0.36491000000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>125</v>
       </c>
@@ -11250,7 +11261,7 @@
         <v>0.27931</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>125</v>
       </c>
@@ -11270,7 +11281,7 @@
         <v>0.23213</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>125</v>
       </c>
@@ -11290,7 +11301,7 @@
         <v>0.41550999999999999</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>150</v>
       </c>
@@ -11310,7 +11321,7 @@
         <v>0.35409000000000002</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>150</v>
       </c>
@@ -11330,7 +11341,7 @@
         <v>0.23216999999999999</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>150</v>
       </c>
@@ -11350,7 +11361,7 @@
         <v>0.32917999999999997</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>150</v>
       </c>
@@ -11370,7 +11381,7 @@
         <v>0.25618999999999997</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>150</v>
       </c>
@@ -11390,7 +11401,7 @@
         <v>0.11148</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>150</v>
       </c>
@@ -11410,7 +11421,7 @@
         <v>0.29054999999999997</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>150</v>
       </c>
@@ -11430,7 +11441,7 @@
         <v>0.39052999999999999</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>150</v>
       </c>
@@ -11450,7 +11461,7 @@
         <v>0.21956000000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>150</v>
       </c>
@@ -11470,7 +11481,7 @@
         <v>0.31046000000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>150</v>
       </c>
@@ -11490,7 +11501,7 @@
         <v>0.16389000000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>150</v>
       </c>
@@ -11510,7 +11521,7 @@
         <v>0.28623999999999999</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>150</v>
       </c>
@@ -11530,7 +11541,7 @@
         <v>0.28764000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>150</v>
       </c>
@@ -11550,7 +11561,7 @@
         <v>7.6109999999999997E-2</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>150</v>
       </c>
@@ -11570,7 +11581,7 @@
         <v>0.23222999999999999</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>150</v>
       </c>
@@ -11590,7 +11601,7 @@
         <v>0.17138999999999999</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>150</v>
       </c>
@@ -11610,7 +11621,7 @@
         <v>0.27742</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>150</v>
       </c>
@@ -11630,7 +11641,7 @@
         <v>0.21878</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>150</v>
       </c>
@@ -11650,7 +11661,7 @@
         <v>0.23957999999999999</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>150</v>
       </c>
@@ -11670,7 +11681,7 @@
         <v>0.28075</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>150</v>
       </c>
@@ -11690,7 +11701,7 @@
         <v>0.31035000000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>150</v>
       </c>
@@ -11710,7 +11721,7 @@
         <v>0.30066999999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>150</v>
       </c>
@@ -11730,7 +11741,7 @@
         <v>0.49542999999999998</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>150</v>
       </c>
@@ -11750,7 +11761,7 @@
         <v>0.21362</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>150</v>
       </c>
@@ -11770,7 +11781,7 @@
         <v>0.42949999999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>150</v>
       </c>
@@ -11790,7 +11801,7 @@
         <v>0.34017999999999998</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>150</v>
       </c>
@@ -11810,7 +11821,7 @@
         <v>0.28108</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>150</v>
       </c>
@@ -11830,7 +11841,7 @@
         <v>0.27192</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>150</v>
       </c>
@@ -11850,7 +11861,7 @@
         <v>0.20996999999999999</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>150</v>
       </c>
@@ -11870,7 +11881,7 @@
         <v>0.20660999999999999</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>150</v>
       </c>
@@ -11890,7 +11901,7 @@
         <v>0.24543999999999999</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>150</v>
       </c>
@@ -11910,7 +11921,7 @@
         <v>0.21948000000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>150</v>
       </c>
@@ -11930,7 +11941,7 @@
         <v>0.36713000000000001</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>150</v>
       </c>
@@ -11950,7 +11961,7 @@
         <v>0.31873000000000001</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>150</v>
       </c>
@@ -11970,7 +11981,7 @@
         <v>0.3246</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>150</v>
       </c>
@@ -11990,7 +12001,7 @@
         <v>0.16941000000000001</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>150</v>
       </c>
@@ -12010,7 +12021,7 @@
         <v>0.30429</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>150</v>
       </c>
@@ -12030,7 +12041,7 @@
         <v>0.26151000000000002</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>150</v>
       </c>
@@ -12050,7 +12061,7 @@
         <v>0.24575</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>150</v>
       </c>
@@ -12070,7 +12081,7 @@
         <v>0.24912999999999999</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>150</v>
       </c>
@@ -12090,7 +12101,7 @@
         <v>0.34609000000000001</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>150</v>
       </c>
@@ -12110,7 +12121,7 @@
         <v>0.21127000000000001</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>150</v>
       </c>
@@ -12130,7 +12141,7 @@
         <v>0.48032000000000002</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>150</v>
       </c>
@@ -12150,7 +12161,7 @@
         <v>0.18317</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>150</v>
       </c>
@@ -12170,7 +12181,7 @@
         <v>0.29570000000000002</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>150</v>
       </c>
@@ -12190,7 +12201,7 @@
         <v>0.32214999999999999</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>150</v>
       </c>
@@ -12210,7 +12221,7 @@
         <v>0.25303999999999999</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>150</v>
       </c>
@@ -12230,7 +12241,7 @@
         <v>0.28927000000000003</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>150</v>
       </c>
@@ -12250,7 +12261,7 @@
         <v>0.41519</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>150</v>
       </c>
@@ -12270,7 +12281,7 @@
         <v>0.28016000000000002</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>150</v>
       </c>
@@ -12290,7 +12301,7 @@
         <v>0.39022000000000001</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>150</v>
       </c>
@@ -12310,7 +12321,7 @@
         <v>0.42549999999999999</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>150</v>
       </c>
@@ -12330,7 +12341,7 @@
         <v>0.33757999999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>150</v>
       </c>
@@ -12350,7 +12361,7 @@
         <v>7.177E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>150</v>
       </c>
@@ -12370,7 +12381,7 @@
         <v>0.43868000000000001</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>150</v>
       </c>
@@ -12390,7 +12401,7 @@
         <v>0.45942</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>150</v>
       </c>
@@ -12410,7 +12421,7 @@
         <v>0.29500999999999999</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>150</v>
       </c>
@@ -12430,7 +12441,7 @@
         <v>0.30464000000000002</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>150</v>
       </c>
@@ -12450,7 +12461,7 @@
         <v>0.28925000000000001</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>150</v>
       </c>
@@ -12470,7 +12481,7 @@
         <v>0.23551</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>150</v>
       </c>
@@ -12490,7 +12501,7 @@
         <v>0.19758000000000001</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>150</v>
       </c>
@@ -12510,7 +12521,7 @@
         <v>0.37090000000000001</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>150</v>
       </c>
@@ -12530,7 +12541,7 @@
         <v>0.28905999999999998</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>150</v>
       </c>
@@ -12550,7 +12561,7 @@
         <v>0.2407</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>150</v>
       </c>
@@ -12570,7 +12581,7 @@
         <v>0.26344000000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>150</v>
       </c>
@@ -12590,7 +12601,7 @@
         <v>0.33067999999999997</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>150</v>
       </c>
@@ -12610,7 +12621,7 @@
         <v>0.25985999999999998</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>150</v>
       </c>
@@ -12630,7 +12641,7 @@
         <v>0.40156999999999998</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>150</v>
       </c>
@@ -12650,7 +12661,7 @@
         <v>0.22939000000000001</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>150</v>
       </c>
@@ -12670,7 +12681,7 @@
         <v>0.33803</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>150</v>
       </c>
@@ -12690,7 +12701,7 @@
         <v>0.44973999999999997</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>150</v>
       </c>
@@ -12710,7 +12721,7 @@
         <v>0.32982</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>150</v>
       </c>
@@ -12730,7 +12741,7 @@
         <v>0.32407000000000002</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>150</v>
       </c>
@@ -12750,7 +12761,7 @@
         <v>0.33195999999999998</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>150</v>
       </c>
@@ -12770,7 +12781,7 @@
         <v>0.17313000000000001</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>150</v>
       </c>
@@ -12790,7 +12801,7 @@
         <v>0.23093</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>150</v>
       </c>
@@ -12810,7 +12821,7 @@
         <v>0.2346</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>150</v>
       </c>
@@ -12830,7 +12841,7 @@
         <v>0.17652000000000001</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>150</v>
       </c>
@@ -12850,7 +12861,7 @@
         <v>0.21482000000000001</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>150</v>
       </c>
@@ -12870,7 +12881,7 @@
         <v>0.32962000000000002</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>150</v>
       </c>
@@ -12890,7 +12901,7 @@
         <v>0.46209</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>150</v>
       </c>
@@ -12910,7 +12921,7 @@
         <v>0.32064999999999999</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>150</v>
       </c>
@@ -12930,7 +12941,7 @@
         <v>0.45934000000000003</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>150</v>
       </c>
@@ -12950,7 +12961,7 @@
         <v>0.34128999999999998</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>150</v>
       </c>
@@ -12970,7 +12981,7 @@
         <v>0.26230999999999999</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>150</v>
       </c>
@@ -12990,7 +13001,7 @@
         <v>0.26550000000000001</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>150</v>
       </c>
@@ -13010,7 +13021,7 @@
         <v>0.30220999999999998</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>150</v>
       </c>
@@ -13030,7 +13041,7 @@
         <v>0.18249000000000001</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>150</v>
       </c>
@@ -13050,7 +13061,7 @@
         <v>0.35274</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>150</v>
       </c>
@@ -13070,7 +13081,7 @@
         <v>0.37855</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>150</v>
       </c>
@@ -13090,7 +13101,7 @@
         <v>0.20846000000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>150</v>
       </c>
@@ -13110,7 +13121,7 @@
         <v>0.40384999999999999</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>150</v>
       </c>
@@ -13130,7 +13141,7 @@
         <v>0.31679000000000002</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>150</v>
       </c>
@@ -13150,7 +13161,7 @@
         <v>0.26380999999999999</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>150</v>
       </c>
@@ -13170,7 +13181,7 @@
         <v>0.42562</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>150</v>
       </c>
@@ -13190,7 +13201,7 @@
         <v>0.33201000000000003</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>150</v>
       </c>
@@ -13210,7 +13221,7 @@
         <v>0.26463999999999999</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
         <v>150</v>
       </c>
@@ -13230,7 +13241,7 @@
         <v>0.27576000000000001</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>150</v>
       </c>
@@ -13250,7 +13261,7 @@
         <v>0.27346999999999999</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>150</v>
       </c>
@@ -13270,7 +13281,7 @@
         <v>0.24553</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>150</v>
       </c>
@@ -13290,7 +13301,7 @@
         <v>0.32221</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
         <v>150</v>
       </c>
@@ -13310,7 +13321,7 @@
         <v>0.32894000000000001</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>150</v>
       </c>
@@ -13330,7 +13341,7 @@
         <v>0.26079999999999998</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
         <v>150</v>
       </c>
@@ -13350,7 +13361,7 @@
         <v>0.25924000000000003</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>150</v>
       </c>
@@ -13370,7 +13381,7 @@
         <v>0.26493</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
         <v>150</v>
       </c>
@@ -13390,7 +13401,7 @@
         <v>0.30504999999999999</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
         <v>150</v>
       </c>
@@ -13410,7 +13421,7 @@
         <v>0.27714</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
         <v>150</v>
       </c>
@@ -13430,7 +13441,7 @@
         <v>0.23957999999999999</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>150</v>
       </c>
@@ -13450,7 +13461,7 @@
         <v>0.18731999999999999</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
         <v>150</v>
       </c>
@@ -13470,7 +13481,7 @@
         <v>5.262E-2</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>150</v>
       </c>
@@ -13490,7 +13501,7 @@
         <v>0.37607000000000002</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
         <v>150</v>
       </c>
@@ -13510,7 +13521,7 @@
         <v>0.23957999999999999</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>150</v>
       </c>
@@ -13530,7 +13541,7 @@
         <v>0.37311</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
         <v>150</v>
       </c>
@@ -13550,7 +13561,7 @@
         <v>0.34816999999999998</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
         <v>150</v>
       </c>
@@ -13570,7 +13581,7 @@
         <v>0.25234000000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
         <v>150</v>
       </c>
@@ -13590,7 +13601,7 @@
         <v>0.29951</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
         <v>150</v>
       </c>
@@ -13610,7 +13621,7 @@
         <v>0.24382000000000001</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
         <v>150</v>
       </c>
@@ -13630,7 +13641,7 @@
         <v>0.23427000000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="2">
         <v>150</v>
       </c>
@@ -13650,7 +13661,7 @@
         <v>0.31556000000000001</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="2">
         <v>150</v>
       </c>
@@ -13670,7 +13681,7 @@
         <v>0.31852999999999998</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="2">
         <v>150</v>
       </c>
@@ -13690,7 +13701,7 @@
         <v>0.36725000000000002</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="2">
         <v>150</v>
       </c>
@@ -13710,7 +13721,7 @@
         <v>0.24132999999999999</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="2">
         <v>150</v>
       </c>
@@ -13730,7 +13741,7 @@
         <v>0.30968000000000001</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="2">
         <v>150</v>
       </c>
@@ -13750,7 +13761,7 @@
         <v>0.21392</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="2">
         <v>150</v>
       </c>
@@ -13770,7 +13781,7 @@
         <v>0.31603999999999999</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="2">
         <v>150</v>
       </c>
@@ -13790,7 +13801,7 @@
         <v>0.35487999999999997</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="2">
         <v>150</v>
       </c>
@@ -13810,7 +13821,7 @@
         <v>0.24059</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="2">
         <v>150</v>
       </c>
@@ -13830,7 +13841,7 @@
         <v>0.28591</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="2">
         <v>150</v>
       </c>
@@ -13850,7 +13861,7 @@
         <v>0.20549999999999999</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="2">
         <v>150</v>
       </c>
@@ -13870,7 +13881,7 @@
         <v>0.30502000000000001</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="2">
         <v>150</v>
       </c>
@@ -13890,7 +13901,7 @@
         <v>0.22026999999999999</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="2">
         <v>150</v>
       </c>
@@ -13910,7 +13921,7 @@
         <v>0.22763</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="2">
         <v>150</v>
       </c>
@@ -13930,7 +13941,7 @@
         <v>0.10684</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" s="2">
         <v>150</v>
       </c>
@@ -13950,7 +13961,7 @@
         <v>0.26772000000000001</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" s="2">
         <v>150</v>
       </c>
@@ -13970,7 +13981,7 @@
         <v>0.21573999999999999</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" s="2">
         <v>150</v>
       </c>
@@ -13990,7 +14001,7 @@
         <v>0.21726000000000001</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="2">
         <v>150</v>
       </c>
@@ -14010,7 +14021,7 @@
         <v>0.28938999999999998</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="2">
         <v>150</v>
       </c>
@@ -14030,7 +14041,7 @@
         <v>0.20621999999999999</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="2">
         <v>150</v>
       </c>
@@ -14050,7 +14061,7 @@
         <v>0.26973999999999998</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="2">
         <v>150</v>
       </c>
@@ -14070,7 +14081,7 @@
         <v>0.3518</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" s="2">
         <v>150</v>
       </c>
@@ -14090,7 +14101,7 @@
         <v>0.42166999999999999</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="2">
         <v>150</v>
       </c>
@@ -14110,7 +14121,7 @@
         <v>0.28383000000000003</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="2">
         <v>150</v>
       </c>
@@ -14130,7 +14141,7 @@
         <v>0.42397000000000001</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="2">
         <v>150</v>
       </c>
@@ -14150,7 +14161,7 @@
         <v>0.34860000000000002</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" s="2">
         <v>150</v>
       </c>
@@ -14170,7 +14181,7 @@
         <v>0.41243999999999997</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" s="2">
         <v>150</v>
       </c>
@@ -14190,7 +14201,7 @@
         <v>0.33743000000000001</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" s="2">
         <v>150</v>
       </c>
@@ -14210,7 +14221,7 @@
         <v>0.39556000000000002</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="2">
         <v>150</v>
       </c>
@@ -14230,7 +14241,7 @@
         <v>0.13986000000000001</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" s="2">
         <v>150</v>
       </c>
@@ -14250,7 +14261,7 @@
         <v>0.31911</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" s="2">
         <v>150</v>
       </c>
@@ -14270,7 +14281,7 @@
         <v>0.17873</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" s="2">
         <v>150</v>
       </c>
@@ -14290,7 +14301,7 @@
         <v>0.44058000000000003</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="2">
         <v>150</v>
       </c>
@@ -14310,7 +14321,7 @@
         <v>0.39799000000000001</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="2">
         <v>150</v>
       </c>
@@ -14330,7 +14341,7 @@
         <v>0.24051</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="2">
         <v>150</v>
       </c>
@@ -14350,7 +14361,7 @@
         <v>0.25888</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="2">
         <v>150</v>
       </c>
@@ -14370,7 +14381,7 @@
         <v>0.39617000000000002</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="2">
         <v>150</v>
       </c>
@@ -14390,7 +14401,7 @@
         <v>0.35987999999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="2">
         <v>150</v>
       </c>
@@ -14410,7 +14421,7 @@
         <v>0.49193999999999999</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="2">
         <v>150</v>
       </c>
@@ -14430,7 +14441,7 @@
         <v>0.15498999999999999</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="2">
         <v>150</v>
       </c>
@@ -14450,7 +14461,7 @@
         <v>0.30608999999999997</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="2">
         <v>150</v>
       </c>
@@ -14470,7 +14481,7 @@
         <v>0.32089000000000001</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="2">
         <v>150</v>
       </c>
@@ -14490,7 +14501,7 @@
         <v>0.36160999999999999</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="2">
         <v>150</v>
       </c>
@@ -14510,7 +14521,7 @@
         <v>0.40516000000000002</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="2">
         <v>150</v>
       </c>
@@ -14530,7 +14541,7 @@
         <v>0.20962</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="2">
         <v>150</v>
       </c>
@@ -14550,7 +14561,7 @@
         <v>0.25389</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" s="2">
         <v>150</v>
       </c>
@@ -14570,7 +14581,7 @@
         <v>0.39739000000000002</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" s="2">
         <v>150</v>
       </c>
@@ -14590,7 +14601,7 @@
         <v>0.33191999999999999</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" s="2">
         <v>150</v>
       </c>
@@ -14610,7 +14621,7 @@
         <v>0.30647999999999997</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" s="2">
         <v>150</v>
       </c>
@@ -14630,7 +14641,7 @@
         <v>0.2843</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" s="2">
         <v>150</v>
       </c>
@@ -14650,7 +14661,7 @@
         <v>0.42953000000000002</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" s="2">
         <v>150</v>
       </c>
@@ -14670,7 +14681,7 @@
         <v>0.38834000000000002</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" s="2">
         <v>150</v>
       </c>
@@ -14690,7 +14701,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" s="2">
         <v>150</v>
       </c>
@@ -14710,7 +14721,7 @@
         <v>0.38113000000000002</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" s="2">
         <v>150</v>
       </c>
@@ -14730,7 +14741,7 @@
         <v>0.55176999999999998</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" s="2">
         <v>150</v>
       </c>
@@ -14750,7 +14761,7 @@
         <v>0.41805999999999999</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" s="2">
         <v>150</v>
       </c>
@@ -14770,7 +14781,7 @@
         <v>0.35951</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" s="2">
         <v>150</v>
       </c>
@@ -14790,7 +14801,7 @@
         <v>0.25348999999999999</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" s="2">
         <v>150</v>
       </c>
@@ -14810,7 +14821,7 @@
         <v>0.25125999999999998</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" s="2">
         <v>150</v>
       </c>
@@ -14830,7 +14841,7 @@
         <v>0.37118000000000001</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" s="2">
         <v>150</v>
       </c>
@@ -14850,7 +14861,7 @@
         <v>0.23638999999999999</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" s="2">
         <v>150</v>
       </c>
@@ -14870,7 +14881,7 @@
         <v>0.31119999999999998</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="2">
         <v>150</v>
       </c>
@@ -14890,7 +14901,7 @@
         <v>0.42362</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" s="2">
         <v>150</v>
       </c>
@@ -14910,7 +14921,7 @@
         <v>0.24662000000000001</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="2">
         <v>150</v>
       </c>
@@ -14930,7 +14941,7 @@
         <v>0.20393</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" s="2">
         <v>150</v>
       </c>
@@ -14950,7 +14961,7 @@
         <v>0.25573000000000001</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" s="2">
         <v>150</v>
       </c>
@@ -14970,7 +14981,7 @@
         <v>0.24962000000000001</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712" s="2">
         <v>150</v>
       </c>
@@ -14990,7 +15001,7 @@
         <v>0.35453000000000001</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" s="2">
         <v>150</v>
       </c>
@@ -15010,7 +15021,7 @@
         <v>0.31164999999999998</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" s="2">
         <v>150</v>
       </c>
@@ -15030,7 +15041,7 @@
         <v>0.11357</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" s="2">
         <v>150</v>
       </c>
@@ -15050,7 +15061,7 @@
         <v>0.34777999999999998</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="2">
         <v>150</v>
       </c>
@@ -15070,7 +15081,7 @@
         <v>0.30929000000000001</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="2">
         <v>150</v>
       </c>
@@ -15090,7 +15101,7 @@
         <v>0.35987000000000002</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" s="2">
         <v>150</v>
       </c>
@@ -15110,7 +15121,7 @@
         <v>0.29982999999999999</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" s="2">
         <v>150</v>
       </c>
@@ -15130,7 +15141,7 @@
         <v>0.27600999999999998</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" s="2">
         <v>150</v>
       </c>
@@ -15150,7 +15161,7 @@
         <v>0.32613999999999999</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" s="2">
         <v>150</v>
       </c>
@@ -15170,7 +15181,7 @@
         <v>0.32344000000000001</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" s="2">
         <v>150</v>
       </c>
@@ -15190,7 +15201,7 @@
         <v>0.26462000000000002</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723" s="2">
         <v>150</v>
       </c>
@@ -15210,7 +15221,7 @@
         <v>0.28864000000000001</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" s="2">
         <v>150</v>
       </c>
@@ -15230,7 +15241,7 @@
         <v>0.26529000000000003</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" s="2">
         <v>150</v>
       </c>
@@ -15250,7 +15261,7 @@
         <v>0.22577</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" s="2">
         <v>150</v>
       </c>
@@ -15270,7 +15281,7 @@
         <v>0.32145000000000001</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" s="2">
         <v>150</v>
       </c>
@@ -15290,7 +15301,7 @@
         <v>0.2276</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" s="2">
         <v>150</v>
       </c>
@@ -15310,7 +15321,7 @@
         <v>0.28616999999999998</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" s="2">
         <v>150</v>
       </c>
@@ -15330,7 +15341,7 @@
         <v>0.22242000000000001</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" s="2">
         <v>150</v>
       </c>
@@ -15350,7 +15361,7 @@
         <v>0.30131999999999998</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" s="2">
         <v>150</v>
       </c>
@@ -15370,7 +15381,7 @@
         <v>0.33750000000000002</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" s="2">
         <v>150</v>
       </c>
@@ -15390,7 +15401,7 @@
         <v>0.31048999999999999</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" s="2">
         <v>150</v>
       </c>
@@ -15410,7 +15421,7 @@
         <v>0.33518999999999999</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" s="2">
         <v>175</v>
       </c>
@@ -15430,7 +15441,7 @@
         <v>0.32446999999999998</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" s="2">
         <v>175</v>
       </c>
@@ -15450,7 +15461,7 @@
         <v>0.25720999999999999</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" s="2">
         <v>175</v>
       </c>
@@ -15470,7 +15481,7 @@
         <v>0.12803</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="2">
         <v>175</v>
       </c>
@@ -15490,7 +15501,7 @@
         <v>7.8609999999999999E-2</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" s="2">
         <v>175</v>
       </c>
@@ -15510,7 +15521,7 @@
         <v>0.29686000000000001</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" s="2">
         <v>175</v>
       </c>
@@ -15530,7 +15541,7 @@
         <v>0.36659000000000003</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" s="2">
         <v>175</v>
       </c>
@@ -15550,7 +15561,7 @@
         <v>0.30935000000000001</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" s="2">
         <v>175</v>
       </c>
@@ -15570,7 +15581,7 @@
         <v>0.24859000000000001</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" s="2">
         <v>175</v>
       </c>
@@ -15590,7 +15601,7 @@
         <v>8.2150000000000001E-2</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" s="2">
         <v>175</v>
       </c>
@@ -15610,7 +15621,7 @@
         <v>0.25025999999999998</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" s="2">
         <v>175</v>
       </c>
@@ -15630,7 +15641,7 @@
         <v>0.24265</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" s="2">
         <v>175</v>
       </c>
@@ -15650,7 +15661,7 @@
         <v>0.47484999999999999</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" s="2">
         <v>175</v>
       </c>
@@ -15670,7 +15681,7 @@
         <v>0.33656000000000003</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" s="2">
         <v>175</v>
       </c>
@@ -15690,7 +15701,7 @@
         <v>0.56679000000000002</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" s="2">
         <v>175</v>
       </c>
@@ -15710,7 +15721,7 @@
         <v>0.11958000000000001</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="2">
         <v>175</v>
       </c>
@@ -15730,7 +15741,7 @@
         <v>0.20931</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" s="2">
         <v>175</v>
       </c>
@@ -15750,7 +15761,7 @@
         <v>0.32896999999999998</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" s="2">
         <v>175</v>
       </c>
@@ -15770,7 +15781,7 @@
         <v>0.43580000000000002</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" s="2">
         <v>175</v>
       </c>
@@ -15790,7 +15801,7 @@
         <v>0.46511999999999998</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" s="2">
         <v>175</v>
       </c>
@@ -15810,7 +15821,7 @@
         <v>0.39837</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" s="2">
         <v>175</v>
       </c>
@@ -15830,7 +15841,7 @@
         <v>0.14029</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" s="2">
         <v>175</v>
       </c>
@@ -15850,7 +15861,7 @@
         <v>0.36136000000000001</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" s="2">
         <v>175</v>
       </c>
@@ -15870,7 +15881,7 @@
         <v>0.37823000000000001</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" s="2">
         <v>175</v>
       </c>
@@ -15890,7 +15901,7 @@
         <v>0.34627000000000002</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" s="2">
         <v>175</v>
       </c>
@@ -15910,7 +15921,7 @@
         <v>0.33396999999999999</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" s="2">
         <v>175</v>
       </c>
@@ -15930,7 +15941,7 @@
         <v>0.18931000000000001</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="2">
         <v>175</v>
       </c>
@@ -15950,7 +15961,7 @@
         <v>0.30093999999999999</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" s="2">
         <v>175</v>
       </c>
@@ -15970,7 +15981,7 @@
         <v>0.25559999999999999</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" s="2">
         <v>175</v>
       </c>
@@ -15990,7 +16001,7 @@
         <v>0.22278000000000001</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763" s="2">
         <v>175</v>
       </c>
@@ -16010,7 +16021,7 @@
         <v>0.26245000000000002</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" s="2">
         <v>175</v>
       </c>
@@ -16030,7 +16041,7 @@
         <v>0.27012000000000003</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" s="2">
         <v>175</v>
       </c>
@@ -16050,7 +16061,7 @@
         <v>0.37578</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" s="2">
         <v>175</v>
       </c>
@@ -16070,7 +16081,7 @@
         <v>0.23862</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" s="2">
         <v>175</v>
       </c>
@@ -16090,7 +16101,7 @@
         <v>0.25407999999999997</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" s="2">
         <v>175</v>
       </c>
@@ -16110,7 +16121,7 @@
         <v>0.24185999999999999</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769" s="2">
         <v>175</v>
       </c>
@@ -16130,7 +16141,7 @@
         <v>0.20981</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770" s="2">
         <v>175</v>
       </c>
@@ -16150,7 +16161,7 @@
         <v>0.28724</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" s="2">
         <v>175</v>
       </c>
@@ -16170,7 +16181,7 @@
         <v>0.15143000000000001</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" s="2">
         <v>175</v>
       </c>
@@ -16190,7 +16201,7 @@
         <v>0.24223</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" s="2">
         <v>175</v>
       </c>
@@ -16210,7 +16221,7 @@
         <v>0.19323000000000001</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" s="2">
         <v>175</v>
       </c>
@@ -16230,7 +16241,7 @@
         <v>0.36647999999999997</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" s="2">
         <v>175</v>
       </c>
@@ -16250,7 +16261,7 @@
         <v>0.24772</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" s="2">
         <v>175</v>
       </c>
@@ -16270,7 +16281,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" s="2">
         <v>175</v>
       </c>
@@ -16290,7 +16301,7 @@
         <v>0.15708</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778" s="2">
         <v>175</v>
       </c>
@@ -16310,7 +16321,7 @@
         <v>0.30951000000000001</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" s="2">
         <v>175</v>
       </c>
@@ -16330,7 +16341,7 @@
         <v>0.23988000000000001</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" s="2">
         <v>175</v>
       </c>
@@ -16350,7 +16361,7 @@
         <v>0.21945999999999999</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" s="2">
         <v>175</v>
       </c>
@@ -16370,7 +16381,7 @@
         <v>0.37080999999999997</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" s="2">
         <v>175</v>
       </c>
@@ -16390,7 +16401,7 @@
         <v>0.30475999999999998</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" s="2">
         <v>175</v>
       </c>
@@ -16410,7 +16421,7 @@
         <v>0.11867999999999999</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" s="2">
         <v>175</v>
       </c>
@@ -16430,7 +16441,7 @@
         <v>0.22758</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785" s="2">
         <v>175</v>
       </c>
@@ -16450,7 +16461,7 @@
         <v>0.24661</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" s="2">
         <v>175</v>
       </c>
@@ -16470,7 +16481,7 @@
         <v>0.30036000000000002</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787" s="2">
         <v>175</v>
       </c>
@@ -16490,7 +16501,7 @@
         <v>0.18922</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A788" s="2">
         <v>175</v>
       </c>
@@ -16510,7 +16521,7 @@
         <v>0.15554000000000001</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789" s="2">
         <v>175</v>
       </c>
@@ -16530,7 +16541,7 @@
         <v>0.20105999999999999</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" s="2">
         <v>175</v>
       </c>
@@ -16550,7 +16561,7 @@
         <v>0.30297000000000002</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A791" s="2">
         <v>175</v>
       </c>
@@ -16570,7 +16581,7 @@
         <v>0.27487</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792" s="2">
         <v>175</v>
       </c>
@@ -16590,7 +16601,7 @@
         <v>0.26572000000000001</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" s="2">
         <v>175</v>
       </c>
@@ -16610,7 +16621,7 @@
         <v>0.31489</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" s="2">
         <v>175</v>
       </c>
@@ -16630,7 +16641,7 @@
         <v>0.26113999999999998</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" s="2">
         <v>175</v>
       </c>
@@ -16650,7 +16661,7 @@
         <v>0.26789000000000002</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796" s="2">
         <v>175</v>
       </c>
@@ -16670,7 +16681,7 @@
         <v>0.31708999999999998</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797" s="2">
         <v>175</v>
       </c>
@@ -16690,7 +16701,7 @@
         <v>0.34144999999999998</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" s="2">
         <v>175</v>
       </c>
@@ -16710,7 +16721,7 @@
         <v>0.12675</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" s="2">
         <v>175</v>
       </c>
@@ -16730,7 +16741,7 @@
         <v>0.21054999999999999</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A800" s="2">
         <v>175</v>
       </c>
@@ -16750,7 +16761,7 @@
         <v>0.24718999999999999</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801" s="2">
         <v>175</v>
       </c>
@@ -16770,7 +16781,7 @@
         <v>0.43658999999999998</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802" s="2">
         <v>175</v>
       </c>
@@ -16790,7 +16801,7 @@
         <v>0.26901000000000003</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803" s="2">
         <v>175</v>
       </c>
@@ -16810,7 +16821,7 @@
         <v>0.26447999999999999</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" s="2">
         <v>175</v>
       </c>
@@ -16830,7 +16841,7 @@
         <v>0.24743000000000001</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805" s="2">
         <v>175</v>
       </c>
@@ -16850,7 +16861,7 @@
         <v>0.13497999999999999</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806" s="2">
         <v>175</v>
       </c>
@@ -16870,7 +16881,7 @@
         <v>0.29353000000000001</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807" s="2">
         <v>175</v>
       </c>
@@ -16890,7 +16901,7 @@
         <v>0.43508999999999998</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808" s="2">
         <v>175</v>
       </c>
@@ -16910,7 +16921,7 @@
         <v>0.14363000000000001</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809" s="2">
         <v>175</v>
       </c>
@@ -16930,7 +16941,7 @@
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810" s="2">
         <v>175</v>
       </c>
@@ -16950,7 +16961,7 @@
         <v>0.16341</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811" s="2">
         <v>175</v>
       </c>
@@ -16970,7 +16981,7 @@
         <v>0.26554</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812" s="2">
         <v>175</v>
       </c>
@@ -16990,7 +17001,7 @@
         <v>0.20232</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813" s="2">
         <v>175</v>
       </c>
@@ -17010,7 +17021,7 @@
         <v>0.41002</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814" s="2">
         <v>175</v>
       </c>
@@ -17030,7 +17041,7 @@
         <v>0.34910000000000002</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815" s="2">
         <v>175</v>
       </c>
@@ -17050,7 +17061,7 @@
         <v>0.26912000000000003</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816" s="2">
         <v>175</v>
       </c>
@@ -17070,7 +17081,7 @@
         <v>0.27028000000000002</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" s="2">
         <v>175</v>
       </c>
@@ -17090,7 +17101,7 @@
         <v>0.37834000000000001</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" s="2">
         <v>175</v>
       </c>
@@ -17110,7 +17121,7 @@
         <v>0.27742</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819" s="2">
         <v>175</v>
       </c>
@@ -17130,7 +17141,7 @@
         <v>0.31622</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820" s="2">
         <v>175</v>
       </c>
@@ -17150,7 +17161,7 @@
         <v>0.32092999999999999</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" s="2">
         <v>175</v>
       </c>
@@ -17170,7 +17181,7 @@
         <v>0.19849</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822" s="2">
         <v>175</v>
       </c>
@@ -17190,7 +17201,7 @@
         <v>0.30997999999999998</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823" s="2">
         <v>175</v>
       </c>
@@ -17210,7 +17221,7 @@
         <v>0.35471000000000003</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824" s="2">
         <v>175</v>
       </c>
@@ -17230,7 +17241,7 @@
         <v>0.34277000000000002</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" s="2">
         <v>175</v>
       </c>
@@ -17250,7 +17261,7 @@
         <v>0.27196999999999999</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" s="2">
         <v>175</v>
       </c>
@@ -17270,7 +17281,7 @@
         <v>0.22572999999999999</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A827" s="2">
         <v>175</v>
       </c>
@@ -17290,7 +17301,7 @@
         <v>0.35702</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828" s="2">
         <v>175</v>
       </c>
@@ -17310,7 +17321,7 @@
         <v>0.1681</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829" s="2">
         <v>175</v>
       </c>
@@ -17330,7 +17341,7 @@
         <v>0.26075999999999999</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A830" s="2">
         <v>175</v>
       </c>
@@ -17350,7 +17361,7 @@
         <v>0.40442</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" s="2">
         <v>175</v>
       </c>
@@ -17370,7 +17381,7 @@
         <v>9.0209999999999999E-2</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" s="2">
         <v>175</v>
       </c>
@@ -17390,7 +17401,7 @@
         <v>0.20016</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" s="2">
         <v>175</v>
       </c>
@@ -17410,7 +17421,7 @@
         <v>0.31234000000000001</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" s="2">
         <v>175</v>
       </c>
@@ -17430,7 +17441,7 @@
         <v>0.34351999999999999</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" s="2">
         <v>175</v>
       </c>
@@ -17450,7 +17461,7 @@
         <v>0.45857999999999999</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" s="2">
         <v>175</v>
       </c>
@@ -17470,7 +17481,7 @@
         <v>0.19639000000000001</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="2">
         <v>175</v>
       </c>
@@ -17490,7 +17501,7 @@
         <v>0.10360999999999999</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" s="2">
         <v>175</v>
       </c>
@@ -17510,7 +17521,7 @@
         <v>0.22983999999999999</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" s="2">
         <v>175</v>
       </c>
@@ -17530,7 +17541,7 @@
         <v>0.31808999999999998</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" s="2">
         <v>175</v>
       </c>
@@ -17550,7 +17561,7 @@
         <v>0.38671</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" s="2">
         <v>175</v>
       </c>
@@ -17570,7 +17581,7 @@
         <v>0.27617999999999998</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" s="2">
         <v>175</v>
       </c>
@@ -17590,7 +17601,7 @@
         <v>0.17065</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" s="2">
         <v>175</v>
       </c>
@@ -17610,7 +17621,7 @@
         <v>0.15110000000000001</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" s="2">
         <v>175</v>
       </c>
@@ -17630,7 +17641,7 @@
         <v>0.19381999999999999</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" s="2">
         <v>175</v>
       </c>
@@ -17650,7 +17661,7 @@
         <v>0.25635999999999998</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" s="2">
         <v>175</v>
       </c>
@@ -17670,7 +17681,7 @@
         <v>4.2070000000000003E-2</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" s="2">
         <v>175</v>
       </c>
@@ -17690,7 +17701,7 @@
         <v>0.20691999999999999</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="2">
         <v>175</v>
       </c>
@@ -17710,7 +17721,7 @@
         <v>0.35050999999999999</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" s="2">
         <v>175</v>
       </c>
@@ -17730,7 +17741,7 @@
         <v>0.38952999999999999</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" s="2">
         <v>175</v>
       </c>
@@ -17750,7 +17761,7 @@
         <v>0.29888999999999999</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" s="2">
         <v>175</v>
       </c>
@@ -17770,7 +17781,7 @@
         <v>0.14548</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" s="2">
         <v>175</v>
       </c>
@@ -17790,7 +17801,7 @@
         <v>0.20949000000000001</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" s="2">
         <v>175</v>
       </c>
@@ -17810,7 +17821,7 @@
         <v>0.37881999999999999</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854" s="2">
         <v>175</v>
       </c>
@@ -17830,7 +17841,7 @@
         <v>0.37167</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855" s="2">
         <v>175</v>
       </c>
@@ -17850,7 +17861,7 @@
         <v>0.33685999999999999</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856" s="2">
         <v>175</v>
       </c>
@@ -17870,7 +17881,7 @@
         <v>0.35333999999999999</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857" s="2">
         <v>175</v>
       </c>
@@ -17890,7 +17901,7 @@
         <v>0.28855999999999998</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858" s="2">
         <v>175</v>
       </c>
@@ -17910,7 +17921,7 @@
         <v>0.21517</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="2">
         <v>175</v>
       </c>
@@ -17930,7 +17941,7 @@
         <v>0.17441999999999999</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860" s="2">
         <v>175</v>
       </c>
@@ -17950,7 +17961,7 @@
         <v>0.22624</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" s="2">
         <v>175</v>
       </c>
@@ -17970,7 +17981,7 @@
         <v>0.13122</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" s="2">
         <v>175</v>
       </c>
@@ -17990,7 +18001,7 @@
         <v>0.42615999999999998</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863" s="2">
         <v>175</v>
       </c>
@@ -18010,7 +18021,7 @@
         <v>0.38772000000000001</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864" s="2">
         <v>175</v>
       </c>
@@ -18030,7 +18041,7 @@
         <v>0.31380999999999998</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865" s="2">
         <v>175</v>
       </c>
@@ -18050,7 +18061,7 @@
         <v>0.29154000000000002</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A866" s="2">
         <v>175</v>
       </c>
@@ -18070,7 +18081,7 @@
         <v>0.17415</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A867" s="2">
         <v>175</v>
       </c>
@@ -18090,7 +18101,7 @@
         <v>0.17283999999999999</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A868" s="2">
         <v>175</v>
       </c>
@@ -18110,7 +18121,7 @@
         <v>0.24740000000000001</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A869" s="2">
         <v>175</v>
       </c>
@@ -18130,7 +18141,7 @@
         <v>0.31102000000000002</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" s="2">
         <v>175</v>
       </c>
@@ -18150,7 +18161,7 @@
         <v>0.13364999999999999</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" s="2">
         <v>175</v>
       </c>
@@ -18170,7 +18181,7 @@
         <v>0.43945000000000001</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872" s="2">
         <v>175</v>
       </c>
@@ -18190,7 +18201,7 @@
         <v>6.7280000000000006E-2</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873" s="2">
         <v>175</v>
       </c>
@@ -18210,7 +18221,7 @@
         <v>0.12299</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874" s="2">
         <v>175</v>
       </c>
@@ -18230,7 +18241,7 @@
         <v>0.15606</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875" s="2">
         <v>175</v>
       </c>
@@ -18250,7 +18261,7 @@
         <v>0.31656000000000001</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876" s="2">
         <v>175</v>
       </c>
@@ -18270,7 +18281,7 @@
         <v>0.42697000000000002</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877" s="2">
         <v>175</v>
       </c>
@@ -18290,7 +18301,7 @@
         <v>0.30404999999999999</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" s="2">
         <v>175</v>
       </c>
@@ -18310,7 +18321,7 @@
         <v>0.24334</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879" s="2">
         <v>175</v>
       </c>
@@ -18330,7 +18341,7 @@
         <v>0.16702</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880" s="2">
         <v>175</v>
       </c>
@@ -18350,7 +18361,7 @@
         <v>0.28833999999999999</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" s="2">
         <v>175</v>
       </c>
@@ -18370,7 +18381,7 @@
         <v>0.23569000000000001</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A882" s="2">
         <v>175</v>
       </c>
@@ -18390,7 +18401,7 @@
         <v>0.18609000000000001</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A883" s="2">
         <v>175</v>
       </c>
@@ -18410,7 +18421,7 @@
         <v>0.28771999999999998</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884" s="2">
         <v>175</v>
       </c>
@@ -18430,7 +18441,7 @@
         <v>0.25407999999999997</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A885" s="2">
         <v>175</v>
       </c>
@@ -18450,7 +18461,7 @@
         <v>0.45507999999999998</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886" s="2">
         <v>175</v>
       </c>
@@ -18470,7 +18481,7 @@
         <v>0.26175999999999999</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A887" s="2">
         <v>175</v>
       </c>
@@ -18490,7 +18501,7 @@
         <v>0.29591000000000001</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A888" s="2">
         <v>175</v>
       </c>
@@ -18510,7 +18521,7 @@
         <v>0.28445999999999999</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A889" s="2">
         <v>175</v>
       </c>
@@ -18530,7 +18541,7 @@
         <v>0.39427000000000001</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890" s="2">
         <v>175</v>
       </c>
@@ -18550,7 +18561,7 @@
         <v>0.42431000000000002</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A891" s="2">
         <v>175</v>
       </c>
@@ -18570,7 +18581,7 @@
         <v>0.32374000000000003</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" s="2">
         <v>175</v>
       </c>
@@ -18590,7 +18601,7 @@
         <v>0.40458</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A893" s="2">
         <v>175</v>
       </c>
@@ -18610,7 +18621,7 @@
         <v>0.24979999999999999</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894" s="2">
         <v>175</v>
       </c>
@@ -18630,7 +18641,7 @@
         <v>0.30925999999999998</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A895" s="2">
         <v>175</v>
       </c>
@@ -18650,7 +18661,7 @@
         <v>0.32016</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896" s="2">
         <v>175</v>
       </c>
@@ -18670,7 +18681,7 @@
         <v>0.26843</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897" s="2">
         <v>175</v>
       </c>
@@ -18690,7 +18701,7 @@
         <v>0.27385999999999999</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898" s="2">
         <v>175</v>
       </c>
@@ -18710,7 +18721,7 @@
         <v>0.20432</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899" s="2">
         <v>175</v>
       </c>
@@ -18730,7 +18741,7 @@
         <v>0.34726000000000001</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A900" s="2">
         <v>175</v>
       </c>
@@ -18750,7 +18761,7 @@
         <v>0.36231999999999998</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A901" s="2">
         <v>175</v>
       </c>
@@ -18770,7 +18781,7 @@
         <v>0.31763999999999998</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" s="2">
         <v>175</v>
       </c>
@@ -18790,7 +18801,7 @@
         <v>0.3075</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" s="2">
         <v>175</v>
       </c>
@@ -18810,7 +18821,7 @@
         <v>0.27372000000000002</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904" s="2">
         <v>175</v>
       </c>
@@ -18830,7 +18841,7 @@
         <v>0.35743000000000003</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A905" s="2">
         <v>175</v>
       </c>
@@ -18850,7 +18861,7 @@
         <v>0.33617000000000002</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906" s="2">
         <v>175</v>
       </c>
@@ -18870,7 +18881,7 @@
         <v>0.36008000000000001</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907" s="2">
         <v>175</v>
       </c>
@@ -18890,7 +18901,7 @@
         <v>0.27492</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" s="2">
         <v>175</v>
       </c>
@@ -18910,7 +18921,7 @@
         <v>0.40944999999999998</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" s="2">
         <v>175</v>
       </c>
@@ -18930,7 +18941,7 @@
         <v>0.30578</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" s="2">
         <v>175</v>
       </c>
@@ -18950,7 +18961,7 @@
         <v>0.36314999999999997</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A911" s="2">
         <v>175</v>
       </c>
@@ -18970,7 +18981,7 @@
         <v>0.51363999999999999</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912" s="2">
         <v>175</v>
       </c>
@@ -18990,7 +19001,7 @@
         <v>0.36459000000000003</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A913" s="2">
         <v>175</v>
       </c>
@@ -19010,7 +19021,7 @@
         <v>0.19561000000000001</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" s="2">
         <v>175</v>
       </c>
@@ -19030,7 +19041,7 @@
         <v>0.42888999999999999</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A915" s="2">
         <v>175</v>
       </c>
@@ -19050,7 +19061,7 @@
         <v>0.30036000000000002</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A916" s="2">
         <v>175</v>
       </c>
@@ -19070,7 +19081,7 @@
         <v>0.33313999999999999</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A917" s="2">
         <v>175</v>
       </c>
@@ -19090,7 +19101,7 @@
         <v>0.26557999999999998</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A918" s="2">
         <v>175</v>
       </c>
@@ -19110,7 +19121,7 @@
         <v>0.33289000000000002</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A919" s="2">
         <v>175</v>
       </c>
@@ -19130,7 +19141,7 @@
         <v>0.36212</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A920" s="2">
         <v>175</v>
       </c>
@@ -19150,7 +19161,7 @@
         <v>0.25115999999999999</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A921" s="2">
         <v>175</v>
       </c>
@@ -19170,7 +19181,7 @@
         <v>0.2407</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A922" s="2">
         <v>175</v>
       </c>
@@ -19190,7 +19201,7 @@
         <v>0.25761000000000001</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A923" s="2">
         <v>175</v>
       </c>
@@ -19210,7 +19221,7 @@
         <v>0.26999000000000001</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A924" s="2">
         <v>175</v>
       </c>
@@ -19230,7 +19241,7 @@
         <v>0.23573</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A925" s="2">
         <v>175</v>
       </c>
@@ -19250,7 +19261,7 @@
         <v>0.39946999999999999</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" s="2">
         <v>175</v>
       </c>
@@ -19270,7 +19281,7 @@
         <v>0.21787000000000001</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A927" s="2">
         <v>175</v>
       </c>
@@ -19290,7 +19301,7 @@
         <v>0.33753</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A928" s="2">
         <v>175</v>
       </c>
@@ -19310,7 +19321,7 @@
         <v>0.31506000000000001</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A929" s="2">
         <v>175</v>
       </c>
@@ -19330,7 +19341,7 @@
         <v>0.34022999999999998</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A930" s="2">
         <v>175</v>
       </c>
@@ -19350,7 +19361,7 @@
         <v>0.22226000000000001</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A931" s="2">
         <v>175</v>
       </c>
@@ -19370,7 +19381,7 @@
         <v>0.28691</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A932" s="2">
         <v>175</v>
       </c>
@@ -19390,7 +19401,7 @@
         <v>0.37657000000000002</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A933" s="2">
         <v>175</v>
       </c>
@@ -19410,7 +19421,7 @@
         <v>0.36537999999999998</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A934" s="2">
         <v>175</v>
       </c>
